--- a/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分折20131008.xlsx
+++ b/trunk/hot-deploy/partner/document/钢管厂一期软件开发需求/钢管厂一期需求分折20131008.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15150" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15150" windowHeight="4515" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="结构表" sheetId="1" r:id="rId1"/>
@@ -4866,6 +4866,9 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4922,9 +4925,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -29688,7 +29688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -29739,13 +29739,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="148" t="s">
@@ -29786,7 +29786,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="115.5">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="183" t="s">
         <v>501</v>
       </c>
       <c r="B9" s="164" t="s">
@@ -29806,7 +29806,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="182"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="164" t="s">
         <v>119</v>
       </c>
@@ -29824,7 +29824,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="33">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="190" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="164" t="s">
@@ -29844,7 +29844,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="147" customFormat="1" ht="66">
-      <c r="A12" s="190"/>
+      <c r="A12" s="191"/>
       <c r="B12" s="165" t="s">
         <v>28</v>
       </c>
@@ -29862,7 +29862,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="195" t="s">
         <v>521</v>
       </c>
       <c r="B13" s="165" t="s">
@@ -29882,7 +29882,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1">
-      <c r="A14" s="195"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="166" t="s">
         <v>477</v>
       </c>
@@ -29898,7 +29898,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1">
-      <c r="A15" s="195"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="166" t="s">
         <v>176</v>
       </c>
@@ -29916,7 +29916,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="147" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="195"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="167" t="s">
         <v>24</v>
       </c>
@@ -29934,7 +29934,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="167" t="s">
         <v>479</v>
       </c>
@@ -29952,7 +29952,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="147" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="195"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="167" t="s">
         <v>34</v>
       </c>
@@ -29970,7 +29970,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="147" customFormat="1">
-      <c r="A19" s="196"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="168" t="s">
         <v>177</v>
       </c>
@@ -29988,7 +29988,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="147" customFormat="1">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="198" t="s">
         <v>525</v>
       </c>
       <c r="B20" s="167" t="s">
@@ -30008,7 +30008,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="198"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="164" t="s">
         <v>481</v>
       </c>
@@ -30024,7 +30024,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A22" s="198"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="165" t="s">
         <v>55</v>
       </c>
@@ -30042,7 +30042,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="147" customFormat="1">
-      <c r="A23" s="198"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="167" t="s">
         <v>56</v>
       </c>
@@ -30060,7 +30060,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A24" s="198"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="165" t="s">
         <v>57</v>
       </c>
@@ -30078,7 +30078,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A25" s="198"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="165" t="s">
         <v>483</v>
       </c>
@@ -30096,7 +30096,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A26" s="198"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="165" t="s">
         <v>58</v>
       </c>
@@ -30114,7 +30114,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="147" customFormat="1">
-      <c r="A27" s="198"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="167" t="s">
         <v>59</v>
       </c>
@@ -30132,7 +30132,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="33">
-      <c r="A28" s="199"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="164" t="s">
         <v>60</v>
       </c>
@@ -30150,7 +30150,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="184" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="164" t="s">
@@ -30168,7 +30168,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="147" customFormat="1" ht="33">
-      <c r="A30" s="184"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="165" t="s">
         <v>33</v>
       </c>
@@ -30186,7 +30186,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="66">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="169" t="s">
         <v>529</v>
       </c>
@@ -30204,7 +30204,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="184"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="164" t="s">
         <v>35</v>
       </c>
@@ -30220,7 +30220,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="49.5">
-      <c r="A33" s="184"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="164" t="s">
         <v>36</v>
       </c>
@@ -30238,7 +30238,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="192" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="164" t="s">
@@ -30256,7 +30256,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="99">
-      <c r="A35" s="192"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="164" t="s">
         <v>40</v>
       </c>
@@ -30272,7 +30272,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="99">
-      <c r="A36" s="193"/>
+      <c r="A36" s="194"/>
       <c r="B36" s="164" t="s">
         <v>39</v>
       </c>
@@ -30308,7 +30308,7 @@
       <c r="H37" s="178"/>
     </row>
     <row r="38" spans="1:8" s="147" customFormat="1">
-      <c r="A38" s="185" t="s">
+      <c r="A38" s="186" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="157" t="s">
@@ -30324,7 +30324,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="147" customFormat="1" ht="33">
-      <c r="A39" s="186"/>
+      <c r="A39" s="187"/>
       <c r="B39" s="157" t="s">
         <v>52</v>
       </c>
@@ -30340,7 +30340,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="147" customFormat="1">
-      <c r="A40" s="186"/>
+      <c r="A40" s="187"/>
       <c r="B40" s="157" t="s">
         <v>61</v>
       </c>
@@ -30352,7 +30352,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="147" customFormat="1">
-      <c r="A41" s="186"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="157" t="s">
         <v>63</v>
       </c>
@@ -30366,7 +30366,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="147" customFormat="1">
-      <c r="A42" s="186"/>
+      <c r="A42" s="187"/>
       <c r="B42" s="157" t="s">
         <v>505</v>
       </c>
@@ -30378,7 +30378,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="147" customFormat="1">
-      <c r="A43" s="186"/>
+      <c r="A43" s="187"/>
       <c r="B43" s="157" t="s">
         <v>62</v>
       </c>
@@ -30390,7 +30390,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="147" customFormat="1">
-      <c r="A44" s="186"/>
+      <c r="A44" s="187"/>
       <c r="B44" s="157" t="s">
         <v>506</v>
       </c>
@@ -30402,7 +30402,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="147" customFormat="1">
-      <c r="A45" s="186"/>
+      <c r="A45" s="187"/>
       <c r="B45" s="157" t="s">
         <v>507</v>
       </c>
@@ -30414,7 +30414,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="147" customFormat="1">
-      <c r="A46" s="186"/>
+      <c r="A46" s="187"/>
       <c r="B46" s="157" t="s">
         <v>509</v>
       </c>
@@ -30428,7 +30428,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="147" customFormat="1">
-      <c r="A47" s="187"/>
+      <c r="A47" s="188"/>
       <c r="B47" s="157" t="s">
         <v>536</v>
       </c>
@@ -30440,7 +30440,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="33">
-      <c r="A48" s="188" t="s">
+      <c r="A48" s="189" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="149" t="s">
@@ -30458,7 +30458,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="188"/>
+      <c r="A49" s="189"/>
       <c r="B49" s="149" t="s">
         <v>9</v>
       </c>
@@ -30474,7 +30474,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="188"/>
+      <c r="A50" s="189"/>
       <c r="B50" s="149" t="s">
         <v>7</v>
       </c>
@@ -30490,7 +30490,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="188"/>
+      <c r="A51" s="189"/>
       <c r="B51" s="149" t="s">
         <v>540</v>
       </c>
@@ -30506,7 +30506,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="188"/>
+      <c r="A52" s="189"/>
       <c r="B52" s="149" t="s">
         <v>43</v>
       </c>
@@ -30522,7 +30522,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="188"/>
+      <c r="A53" s="189"/>
       <c r="B53" s="149" t="s">
         <v>6</v>
       </c>
@@ -30538,7 +30538,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="188"/>
+      <c r="A54" s="189"/>
       <c r="B54" s="149" t="s">
         <v>541</v>
       </c>
@@ -30554,7 +30554,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="49.5">
-      <c r="A55" s="200" t="s">
+      <c r="A55" s="181" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="149" t="s">
@@ -30574,7 +30574,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="200"/>
+      <c r="A56" s="181"/>
       <c r="B56" s="149" t="s">
         <v>558</v>
       </c>
@@ -30590,7 +30590,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="200"/>
+      <c r="A57" s="181"/>
       <c r="B57" s="149" t="s">
         <v>560</v>
       </c>
@@ -30606,7 +30606,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="200"/>
+      <c r="A58" s="181"/>
       <c r="B58" s="149" t="s">
         <v>562</v>
       </c>
@@ -30622,7 +30622,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="200"/>
+      <c r="A59" s="181"/>
       <c r="B59" s="149" t="s">
         <v>564</v>
       </c>
@@ -30638,7 +30638,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="200"/>
+      <c r="A60" s="181"/>
       <c r="B60" s="149" t="s">
         <v>566</v>
       </c>
@@ -30654,7 +30654,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="200"/>
+      <c r="A61" s="181"/>
       <c r="B61" s="149" t="s">
         <v>568</v>
       </c>
@@ -30670,7 +30670,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1">
-      <c r="A62" s="200"/>
+      <c r="A62" s="181"/>
       <c r="B62" s="149" t="s">
         <v>570</v>
       </c>
@@ -33502,7 +33502,7 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -34561,7 +34561,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
@@ -35304,7 +35304,7 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="W47" sqref="A11:W47"/>
     </sheetView>
   </sheetViews>
